--- a/src/test/resources/testdata/Leadsdata3.xlsx
+++ b/src/test/resources/testdata/Leadsdata3.xlsx
@@ -23,421 +23,421 @@
     <t>3102102031</t>
   </si>
   <si>
-    <t>1722335328639yyugcz3mzv2by5vj</t>
+    <t>1722504065055by2rfebudafjgz6x</t>
   </si>
   <si>
     <t>3102102032</t>
   </si>
   <si>
-    <t>1722335328924tkk4fqphkvhywbpw</t>
+    <t>1722504065418w5tltsu3dimyndeq</t>
   </si>
   <si>
     <t>3102102033</t>
   </si>
   <si>
-    <t>1722335329195koym7yn56ajfcjoy</t>
+    <t>17225040657725zolswry2ll4rcge</t>
   </si>
   <si>
     <t>3102102034</t>
   </si>
   <si>
-    <t>1722335329423z5jriu67m7m4xsfu</t>
+    <t>17225040659322jsgovt4ak53nhb4</t>
   </si>
   <si>
     <t>3102102035</t>
   </si>
   <si>
-    <t>17223353297073jihs4um7c3pi5cq</t>
+    <t>1722504066141ktp2jlqyt43weufs</t>
   </si>
   <si>
     <t>3102102036</t>
   </si>
   <si>
-    <t>1722335329799ldzbqkeh2wbhhhqx</t>
+    <t>1722504066301gbg3riitusfaablt</t>
   </si>
   <si>
     <t>3102102037</t>
   </si>
   <si>
-    <t>1722335329923actxvga3ifon6qrc</t>
+    <t>1722504066624eudvrvsizscgdvia</t>
   </si>
   <si>
     <t>3102102038</t>
   </si>
   <si>
-    <t>17223353300177zao2sjc7htng33p</t>
+    <t>17225040667955gyohvt6rze2mrq4</t>
   </si>
   <si>
     <t>3102102039</t>
   </si>
   <si>
-    <t>1722335330146vpxy2gigud7aull7</t>
+    <t>1722504066971mb2qxpyljnlbi4jn</t>
   </si>
   <si>
     <t>3102102040</t>
   </si>
   <si>
-    <t>1722335330239sclsdw7s4dn3phss</t>
+    <t>17225040671685mzuhpfakqw54hwz</t>
   </si>
   <si>
     <t>3102102041</t>
   </si>
   <si>
-    <t>1722335330376gyi4cyzm7iem6jnh</t>
+    <t>1722504067360nakmczhlief7oznr</t>
   </si>
   <si>
     <t>3102102042</t>
   </si>
   <si>
-    <t>1722335330499b62hhk6swqfxey2l</t>
+    <t>1722504067744alj6yffzgb47y3xd</t>
   </si>
   <si>
     <t>3102102043</t>
   </si>
   <si>
-    <t>1722335330584vgvu2bymt5roxm4v</t>
+    <t>1722504067918f3r7rebq5h5f5q5u</t>
   </si>
   <si>
     <t>3102102044</t>
   </si>
   <si>
-    <t>1722335330705ix4jtzwvwhqqbkcp</t>
+    <t>1722504068090rbtgrpfthydc2b4s</t>
   </si>
   <si>
     <t>3102102045</t>
   </si>
   <si>
-    <t>1722335330804pcub656uonpuddl3</t>
+    <t>1722504068317njri5hfbvubwfbcq</t>
   </si>
   <si>
     <t>3102102046</t>
   </si>
   <si>
-    <t>1722335330934eirengo6uoereiwq</t>
+    <t>1722504068526ocudahji6s4seis7</t>
   </si>
   <si>
     <t>3102102047</t>
   </si>
   <si>
-    <t>1722335331050tyap3fs64lod6axs</t>
+    <t>17225040686985qaghjrh2rke3ofj</t>
   </si>
   <si>
     <t>3102102048</t>
   </si>
   <si>
-    <t>1722335331136i3nk2d2stpmrr3b4</t>
+    <t>1722504068882gd5eeo6yy2l7n25y</t>
   </si>
   <si>
     <t>3102102049</t>
   </si>
   <si>
-    <t>1722335331269dba55wtjv2oniwjr</t>
+    <t>1722504069065rtw6a3tg3gdfi6hx</t>
   </si>
   <si>
     <t>3102102050</t>
   </si>
   <si>
-    <t>1722335331409fqi44c5e4ww47qos</t>
+    <t>17225040692484jof5sfma3yjkblj</t>
   </si>
   <si>
     <t>3102102051</t>
   </si>
   <si>
-    <t>1722335331522ng4zyrvgdnophtj5</t>
+    <t>1722504069428auka3esvx65aaz7g</t>
   </si>
   <si>
     <t>3102102052</t>
   </si>
   <si>
-    <t>1722335331619wnq27k5e56ppspux</t>
+    <t>17225040695666f5udpljie5egcii</t>
   </si>
   <si>
     <t>3102102053</t>
   </si>
   <si>
-    <t>1722335331752752wlkldxhpgmn7c</t>
+    <t>1722504069734c2k3kkh76byagz6a</t>
   </si>
   <si>
     <t>3102102054</t>
   </si>
   <si>
-    <t>1722335331883cfbkiaigmblzgkjm</t>
+    <t>1722504069944xv2wvkvfsiimexvh</t>
   </si>
   <si>
     <t>3102102055</t>
   </si>
   <si>
-    <t>1722335332010z6cdidzhoqieaf27</t>
+    <t>1722504070141kemipjf5fr2i26qe</t>
   </si>
   <si>
     <t>3102102056</t>
   </si>
   <si>
-    <t>1722335332141wc4bqukfyarsqcca</t>
+    <t>1722504070320n3si3izftwu44tbw</t>
   </si>
   <si>
     <t>3102102057</t>
   </si>
   <si>
-    <t>17223353322815v4w5rvpct67ibus</t>
+    <t>1722504070512dtza5kfppoe3vnj2</t>
   </si>
   <si>
     <t>3102102058</t>
   </si>
   <si>
-    <t>17223353323856emxijs7spl3gvqk</t>
+    <t>1722504070696ghxnb5j2shsze4rr</t>
   </si>
   <si>
     <t>3102102059</t>
   </si>
   <si>
-    <t>1722335332511ltnklitlnq4xujgr</t>
+    <t>1722504070866r5xppdewrtgkyqhr</t>
   </si>
   <si>
     <t>3102102060</t>
   </si>
   <si>
-    <t>1722335332635j2bxcqxwqhrgc2ku</t>
+    <t>1722504071016wjcapssh2f6jc3ot</t>
   </si>
   <si>
     <t>3102102061</t>
   </si>
   <si>
-    <t>1722335332732ea47qm7oh3d66sdj</t>
+    <t>1722504071170bsehqnihrzzwid3b</t>
   </si>
   <si>
     <t>3102102062</t>
   </si>
   <si>
-    <t>17223353328926goy7thac25m7f7d</t>
+    <t>1722504071349ot6gg472fzihirdp</t>
   </si>
   <si>
     <t>3102102063</t>
   </si>
   <si>
-    <t>1722335332998lrhbaox6g4xpeclr</t>
+    <t>17225040715247xwcqvxktea5hxiu</t>
   </si>
   <si>
     <t>3102102064</t>
   </si>
   <si>
-    <t>1722335333164g74xfqn36uflluob</t>
+    <t>1722504071708kc4wpavaj74jen65</t>
   </si>
   <si>
     <t>3102102065</t>
   </si>
   <si>
-    <t>1722335333288hwda2vzjvzumlhfi</t>
+    <t>1722504071893wzovqxfei6vt72hb</t>
   </si>
   <si>
     <t>3102102066</t>
   </si>
   <si>
-    <t>1722335333386i7bit5ako3cou2wa</t>
+    <t>1722504072036ul3l3wusq5pvoqk2</t>
   </si>
   <si>
     <t>3102102067</t>
   </si>
   <si>
-    <t>1722335333513uy6hriwsath3qats</t>
+    <t>1722504072225uoloixq3jji2so3f</t>
   </si>
   <si>
     <t>3102102068</t>
   </si>
   <si>
-    <t>1722335333610comts2rm3sh6kxuy</t>
+    <t>1722504072385gfklfyufmkjces47</t>
   </si>
   <si>
     <t>3102102069</t>
   </si>
   <si>
-    <t>1722335333689daprhw33eype3jva</t>
+    <t>1722504072596ubzxhxvilc5ndoa6</t>
   </si>
   <si>
     <t>3102102070</t>
   </si>
   <si>
-    <t>1722335333811wbutusywfokqlj27</t>
+    <t>1722504072787ajeba2hmoqfzpd7t</t>
   </si>
   <si>
     <t>3102102071</t>
   </si>
   <si>
-    <t>1722335333936ew2nzsn7od2e5k3e</t>
+    <t>1722504072954rkwjypctduztcjx6</t>
   </si>
   <si>
     <t>3102102072</t>
   </si>
   <si>
-    <t>1722335334025ayxlhcigbdy2ktg7</t>
+    <t>1722504073134o7vqopeonm42opyl</t>
   </si>
   <si>
     <t>3102102073</t>
   </si>
   <si>
-    <t>1722335334159ejg7voyiyb7ltpww</t>
+    <t>1722504073301typkkmivi3zsd5eg</t>
   </si>
   <si>
     <t>3102102074</t>
   </si>
   <si>
-    <t>1722335334306jwdur2rjde5i57rx</t>
+    <t>1722504073483nwzpydbyea3p5bab</t>
   </si>
   <si>
     <t>3102102075</t>
   </si>
   <si>
-    <t>1722335334434ph42aa3ofrxa4jy3</t>
+    <t>17225040736614rtnwsuyo3wwhxgp</t>
   </si>
   <si>
     <t>3102102076</t>
   </si>
   <si>
-    <t>1722335334558d7cbewdnoh3gowr2</t>
+    <t>1722504073840ipdgdp5r3jkl2kgc</t>
   </si>
   <si>
     <t>3102102077</t>
   </si>
   <si>
-    <t>1722335334680pmyylagrgxjibrz3</t>
+    <t>1722504074089dna76mrfm2r25mqm</t>
   </si>
   <si>
     <t>3102102078</t>
   </si>
   <si>
-    <t>1722335334819vxkwu3gx4xc27jlw</t>
+    <t>1722504074236yzbuwdmi5coh2xtp</t>
   </si>
   <si>
     <t>3102102079</t>
   </si>
   <si>
-    <t>1722335334948atriwym5rrjsrh6b</t>
+    <t>1722504074423ezjtsdlq5b2ibrqv</t>
   </si>
   <si>
     <t>3102102080</t>
   </si>
   <si>
-    <t>1722335335054e76rkzvwu6427go7</t>
+    <t>1722504074597ktuvtm72smgaqfmj</t>
   </si>
   <si>
     <t>3102102081</t>
   </si>
   <si>
-    <t>1722335335183hfxzf2ydpk3caxmq</t>
+    <t>1722504074782qb6tmyj67mhgzbsq</t>
   </si>
   <si>
     <t>3102102082</t>
   </si>
   <si>
-    <t>1722335335316shthrrdazlpwcvcn</t>
+    <t>1722504075020ordvjmia6fj6uwue</t>
   </si>
   <si>
     <t>3102102083</t>
   </si>
   <si>
-    <t>1722335335446u6fisfc4qleh2zf4</t>
+    <t>1722504075284s7ur5isoqx775hpo</t>
   </si>
   <si>
     <t>3102102084</t>
   </si>
   <si>
-    <t>1722335335577lyqowiv2mjvobizb</t>
+    <t>1722504075451okduye2t5y5didhc</t>
   </si>
   <si>
     <t>3102102085</t>
   </si>
   <si>
-    <t>17223353356644zzf3ff54p3etgz4</t>
+    <t>172250407563972lzbolryecj54rx</t>
   </si>
   <si>
     <t>3102102086</t>
   </si>
   <si>
-    <t>17223353358055ybugnhc4u66zwp4</t>
+    <t>1722504075781dwziv7wshk73fk6u</t>
   </si>
   <si>
     <t>3102102087</t>
   </si>
   <si>
-    <t>1722335335905d4k6gsul24fzvryu</t>
+    <t>1722504075954n7bxtlbb47jnf3m5</t>
   </si>
   <si>
     <t>3102102088</t>
   </si>
   <si>
-    <t>1722335336033fjye4e23o32nfwj5</t>
+    <t>1722504076150a6j5tepquqpa4nft</t>
   </si>
   <si>
     <t>3102102089</t>
   </si>
   <si>
-    <t>1722335336164pgts3ads3ihl4a4h</t>
+    <t>1722504076331pm2jd6cdzit3krd4</t>
   </si>
   <si>
     <t>3102102090</t>
   </si>
   <si>
-    <t>1722335336293jifnj7332umzsnol</t>
+    <t>1722504076523w6iha6x3l3hne77a</t>
   </si>
   <si>
     <t>3102102091</t>
   </si>
   <si>
-    <t>1722335336399sgeb6kiagzser2zn</t>
+    <t>1722504076689nch7pyoyqqmcidgx</t>
   </si>
   <si>
     <t>3102102092</t>
   </si>
   <si>
-    <t>1722335336527it6mpjowrdqu5mto</t>
+    <t>1722504076862zxpmcczr72uftcg6</t>
   </si>
   <si>
     <t>3102102093</t>
   </si>
   <si>
-    <t>1722335336647o2unuhyxrtce7crc</t>
+    <t>1722504077004fuh3bwzw5wetzene</t>
   </si>
   <si>
     <t>3102102094</t>
   </si>
   <si>
-    <t>1722335336768b4bh364aayl574am</t>
+    <t>1722504077201alscv7h5b5qu4wrp</t>
   </si>
   <si>
     <t>3102102095</t>
   </si>
   <si>
-    <t>1722335336903gvzcegx7v6rsalse</t>
+    <t>1722504077347fh7p42ex4t6d5rqx</t>
   </si>
   <si>
     <t>3102102096</t>
   </si>
   <si>
-    <t>17223353370124rzuhfdarfnu7o3z</t>
+    <t>1722504077511jeyfi7exmkmxysdo</t>
   </si>
   <si>
     <t>3102102097</t>
   </si>
   <si>
-    <t>1722335337136l7pl5eukgvlk37rt</t>
+    <t>1722504077714dhepzr4bziiv6wzx</t>
   </si>
   <si>
     <t>3102102098</t>
   </si>
   <si>
-    <t>1722335337258s32qxs3ris7slq4i</t>
+    <t>1722504077906g53s2tyc2d36fgo4</t>
   </si>
   <si>
     <t>3102102099</t>
   </si>
   <si>
-    <t>1722335337381j73f56p4lvlil3tj</t>
+    <t>1722504078089lznncitp7raed2so</t>
   </si>
   <si>
     <t>3102102100</t>
   </si>
   <si>
-    <t>1722335337489n6wyqefcwm6nq3nw</t>
+    <t>172250407826777gjj24mly2z7uaw</t>
   </si>
   <si>
     <t/>
